--- a/Cesium/tablica_lotow.xlsx
+++ b/Cesium/tablica_lotow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Gdańsk-Warszawa</t>
   </si>
@@ -49,10 +49,28 @@
     <t>LO3831</t>
   </si>
   <si>
-    <t>LO3937</t>
-  </si>
-  <si>
     <t>LO3825</t>
+  </si>
+  <si>
+    <t>LO3828</t>
+  </si>
+  <si>
+    <t>LO3838</t>
+  </si>
+  <si>
+    <t>LO3826</t>
+  </si>
+  <si>
+    <t>LO3835</t>
+  </si>
+  <si>
+    <t>LO3837</t>
+  </si>
+  <si>
+    <t>LO3815</t>
+  </si>
+  <si>
+    <t>LO3827</t>
   </si>
 </sst>
 </file>
@@ -395,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,84 +448,150 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>0.36458333333333331</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C3" s="1">
-        <v>0.40625</v>
+        <v>0.27430555555555552</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.50347222222222221</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C4" s="1">
-        <v>0.54513888888888895</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>0.75694444444444453</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="C5" s="1">
-        <v>0.80208333333333337</v>
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.66319444444444442</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.80208333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.34375</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.59375</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.81944444444444453</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C16" s="1">
         <v>0.85763888888888884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.98263888888888884</v>
       </c>
     </row>
   </sheetData>

--- a/Cesium/tablica_lotow.xlsx
+++ b/Cesium/tablica_lotow.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Gdańsk-Warszawa</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>LO3827</t>
+  </si>
+  <si>
+    <t>Start_s</t>
+  </si>
+  <si>
+    <t>Lądowanie_s</t>
   </si>
 </sst>
 </file>
@@ -106,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -416,12 +423,15 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -442,6 +452,12 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -456,6 +472,14 @@
       <c r="C3" s="1">
         <v>0.27430555555555552</v>
       </c>
+      <c r="D3" s="2">
+        <f>B3*86400</f>
+        <v>19800</v>
+      </c>
+      <c r="E3" s="2">
+        <f>C3*86400</f>
+        <v>23699.999999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -467,6 +491,14 @@
       <c r="C4" s="1">
         <v>0.40625</v>
       </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D8" si="0">B4*86400</f>
+        <v>31500</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E8" si="1">C4*86400</f>
+        <v>35100</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -478,6 +510,14 @@
       <c r="C5" s="1">
         <v>0.54513888888888895</v>
       </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>43500</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>47100.000000000007</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -489,6 +529,14 @@
       <c r="C6" s="1">
         <v>0.66319444444444442</v>
       </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>53700</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>57300</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -500,6 +548,14 @@
       <c r="C7" s="1">
         <v>0.80208333333333337</v>
       </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>65400.000000000007</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>69300</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -511,6 +567,14 @@
       <c r="C8" s="1">
         <v>0.92013888888888884</v>
       </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>75900</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>79500</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -527,6 +591,12 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -538,6 +608,14 @@
       <c r="C12" s="1">
         <v>0.34375</v>
       </c>
+      <c r="D12" s="2">
+        <f>B12*86400</f>
+        <v>26100</v>
+      </c>
+      <c r="E12" s="2">
+        <f>C12*86400</f>
+        <v>29700</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -549,6 +627,14 @@
       <c r="C13" s="1">
         <v>0.4826388888888889</v>
       </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D17" si="2">B13*86400</f>
+        <v>38100.000000000007</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E17" si="3">C13*86400</f>
+        <v>41700</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -560,6 +646,14 @@
       <c r="C14" s="1">
         <v>0.59375</v>
       </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>51300</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -571,6 +665,14 @@
       <c r="C15" s="1">
         <v>0.72916666666666663</v>
       </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>59400</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>63000</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -582,8 +684,16 @@
       <c r="C16" s="1">
         <v>0.85763888888888884</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>70800.000000000015</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -592,6 +702,14 @@
       </c>
       <c r="C17" s="1">
         <v>0.98263888888888884</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>81300</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>84900</v>
       </c>
     </row>
   </sheetData>
